--- a/biology/Médecine/KDM5C/KDM5C.xlsx
+++ b/biology/Médecine/KDM5C/KDM5C.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le KDM5C (pour « Lysine-specific demethylase 5C ») ou JARID1C, ou XE 169,  est une protéine dont le gène est le KDM5C situé sur le chromosome X humain.
 </t>
@@ -511,10 +523,12 @@
           <t>Structure et rôles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe plusieurs isoformes par épissage alternatif. Le chromosome Y humain contient une séquence proche. Il s'agit de l'un des gènes échappant au phénomène d'inactivation du chromosome X[5].
-Il a une activité de histone H3 lysine 4 déméthylase[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe plusieurs isoformes par épissage alternatif. Le chromosome Y humain contient une séquence proche. Il s'agit de l'un des gènes échappant au phénomène d'inactivation du chromosome X.
+Il a une activité de histone H3 lysine 4 déméthylase.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La mutation du gène entraîne un retard mental familial à transmission dominante liée à l'X[7]. Près de 20 mutations de ce type ont été décrites, entraînant une baisse de l'activité de déméthylase de cet enzyme[8]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La mutation du gène entraîne un retard mental familial à transmission dominante liée à l'X. Près de 20 mutations de ce type ont été décrites, entraînant une baisse de l'activité de déméthylase de cet enzyme. 
 </t>
         </is>
       </c>
